--- a/Куделин/Солнечная энергетика/Solar AsiaPacific China.xlsx
+++ b/Куделин/Солнечная энергетика/Solar AsiaPacific China.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>407.72351875558832</c:v>
+                  <c:v>0.40033212481252572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>499.25948970525019</c:v>
+                  <c:v>0.51856484317689866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>606.07027897227772</c:v>
+                  <c:v>0.67299036670173074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>727.36947986874566</c:v>
+                  <c:v>0.87283313910936489</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>860.59201818316171</c:v>
+                  <c:v>1.1299529425581123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1008.0009667771316</c:v>
+                  <c:v>1.4620941160614105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>97.279114964746299</c:v>
+                  <c:v>58.967158672484501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.16741026440448</c:v>
+                  <c:v>102.29977020430772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>228.26008982878983</c:v>
+                  <c:v>140.35574964402105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>289.96294470337602</c:v>
+                  <c:v>169.34581291797232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>338.88774744015865</c:v>
+                  <c:v>197.14134989594623</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>415.72861109138233</c:v>
+                  <c:v>264.88051912891774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627540464"/>
-        <c:axId val="1627542640"/>
+        <c:axId val="-85359984"/>
+        <c:axId val="-85352368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85359984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542640"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627542640"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627540464"/>
+        <c:crossAx val="-85359984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6169425365665</c:v>
+                  <c:v>10.713838956573975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0929994378496</c:v>
+                  <c:v>16.340504503521089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6767870532706</c:v>
+                  <c:v>22.085296577244186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3883425636102</c:v>
+                  <c:v>27.989437369896201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9885725091176</c:v>
+                  <c:v>37.182668858649329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4206624418018</c:v>
+                  <c:v>10.789149968448097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.810783168778</c:v>
+                  <c:v>16.591712658347944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2286759015999</c:v>
+                  <c:v>22.669451518069501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.299205634258</c:v>
+                  <c:v>29.112465138734752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7536360660774</c:v>
+                  <c:v>39.2707664694152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627547536"/>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85351824"/>
+        <c:axId val="-85371952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627547536"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542096"/>
+        <c:crossAx val="-85371952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85371952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627547536"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6650547411698</c:v>
+                  <c:v>10.979438586284983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5738828869758</c:v>
+                  <c:v>17.132618311509194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.1027633192305</c:v>
+                  <c:v>23.82004756017826</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0344518681668</c:v>
+                  <c:v>31.201314797853701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1511216730173</c:v>
+                  <c:v>43.009041873480129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0629243794983</c:v>
+                  <c:v>10.982842143574294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4049198085656</c:v>
+                  <c:v>17.142230860112317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5311930226655</c:v>
+                  <c:v>23.840624265544665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2190528332678</c:v>
+                  <c:v>31.239110744966133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4631924132377</c:v>
+                  <c:v>43.077676048413508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627551344"/>
-        <c:axId val="1627543728"/>
+        <c:axId val="-85342576"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627551344"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543728"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627543728"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627551344"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>7.066010101010102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>9.8160606060606059E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.14701545195101701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.20291885606060611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.28626660606060611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>0.42849942624878928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.60852142628919337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.82912642513131307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>1.1165856081616159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>1.463806013469489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>1.8525675274694899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>2.2911237799999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>2.7484078751515151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>3.3303571682129509</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>4.3826757587597651</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>6.7389046300174407</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>12.16393079496509</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>17.556538376216551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>32.386497215403303</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>62.967796824061253</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>95.624065743606096</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>141.70148508443501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>219.84462125800599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>309.36656131676813</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>390.37162542473442</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>466.8954102833199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>591.00746619838731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>743.17852652375313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627549168"/>
-        <c:axId val="1627535024"/>
+        <c:axId val="-85357808"/>
+        <c:axId val="-85348560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627549168"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627535024"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627535024"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627549168"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627524144"/>
-        <c:axId val="1627525232"/>
+        <c:axId val="-85361072"/>
+        <c:axId val="-85368144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627524144"/>
+        <c:axId val="-85361072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627525232"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627525232"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627524144"/>
+        <c:crossAx val="-85361072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627530128"/>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85344208"/>
+        <c:axId val="-85365968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627530128"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627528496"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627528496"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530128"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627530672"/>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85351280"/>
+        <c:axId val="-85350736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627530672"/>
+        <c:axId val="-85351280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627526864"/>
+        <c:crossAx val="-85350736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85350736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627530672"/>
+        <c:crossAx val="-85351280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.5469272873557427</v>
+        <v>-5.5993995612876012E-4</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71667489954307617</v>
+        <v>2.6920600165162363E-4</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.93021385485712549</v>
+        <v>7.6918447348869987E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2050661692189344</v>
+        <v>1.0976172036675405E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5572741120706759</v>
+        <v>1.4758077494675297E-3</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0157269804092595</v>
+        <v>1.970984536641465E-3</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.5834520968594981</v>
+        <v>2.5230543078712487E-3</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3193777864062848</v>
+        <v>3.1733314343605915E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.255661772026337</v>
+        <v>3.9777865696905808E-3</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.4535899990159571</v>
+        <v>4.9572240722098142E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.9676998715021803</v>
+        <v>6.1341315494315629E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.8792014658118248</v>
+        <v>7.5554569588706169E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.296052339726316</v>
+        <v>9.2396487235316942E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.29751086079785</v>
+        <v>1.1316080637031966E-2</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>17.993642560685231</v>
+        <v>1.4130281099293403E-2</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.680144261652231</v>
+        <v>1.821638722179102E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.393494955232988</v>
+        <v>2.3968543508133364E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.323490735256662</v>
+        <v>3.0643252445730115E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.652516708278078</v>
+        <v>4.0205520489052494E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.485454736984053</v>
+        <v>5.3103883499929186E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.695553537785642</v>
+        <v>6.9111931824262729E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.467791764112363</v>
+        <v>9.0052750462547237E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.535970949661888</v>
+        <v>0.11823271836437292</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>106.81078926702753</v>
+        <v>0.15442552352483205</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.29920089646797</v>
+        <v>0.19984277240763421</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.22253831441606</v>
+        <v>0.25711980344874735</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.40894859396982</v>
+        <v>0.33214117350329814</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.5539272873557427</v>
+        <v>6.44006004387124E-3</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.2706021868988189</v>
+        <v>6.7092660455228634E-3</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.2008160417559441</v>
+        <v>7.4784505190115631E-3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.4058822109748785</v>
+        <v>8.5760677226791038E-3</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.9631563230455544</v>
+        <v>1.0051875472146633E-2</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>6.9788833034548139</v>
+        <v>1.2022860008788099E-2</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.5623354003143124</v>
+        <v>1.4545914316659348E-2</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.881713186720598</v>
+        <v>1.7719245751019939E-2</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.137374958746936</v>
+        <v>2.1697032320710519E-2</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.590964957762893</v>
+        <v>2.6654256392920333E-2</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.558664829265073</v>
+        <v>3.2788387942351893E-2</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.437866295076901</v>
+        <v>4.034384490122251E-2</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.733918634803217</v>
+        <v>4.9583493624754206E-2</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>64.03142949560106</v>
+        <v>6.0899574261786174E-2</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>82.025072056286291</v>
+        <v>7.5029855361079575E-2</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.70521631793852</v>
+        <v>9.3246242582870592E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>133.09871127317152</v>
+        <v>0.11721478609100396</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>168.42220200842817</v>
+        <v>0.14785803853673407</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>212.07471871670626</v>
+        <v>0.18806355902578656</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>265.56017345369031</v>
+        <v>0.24116744252571576</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>330.25572699147597</v>
+        <v>0.31027937434997849</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>407.72351875558832</v>
+        <v>0.40033212481252572</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>499.25948970525019</v>
+        <v>0.51856484317689866</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>606.07027897227772</v>
+        <v>0.67299036670173074</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>727.36947986874566</v>
+        <v>0.87283313910936489</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>860.59201818316171</v>
+        <v>1.1299529425581123</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1008.0009667771316</v>
+        <v>1.4620941160614105</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>580.28496677713156</v>
+        <v>-426.25390588393861</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>290.36144802154325</v>
+        <v>-308.85423800875111</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>309702.52596354677</v>
+        <v>20337.76861402973</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.2969457485048882</v>
+        <v>6.5532925789845229E-6</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5865976692402872</v>
+        <v>1.8410397868103001E-5</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.7821644004811361</v>
+        <v>4.2530607632980554E-5</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.484522639861982</v>
+        <v>7.0962635012888846E-5</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.415025808773063</v>
+        <v>1.4275767973309121E-4</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.273082398426183</v>
+        <v>3.6013184224605401E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>90.5225781096741</v>
+        <v>1.1191758489082983E-3</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>164.2937713370311</v>
+        <v>2.1419082138544863E-3</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>291.09051548295696</v>
+        <v>2.948812298777958E-3</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>506.56347160996683</v>
+        <v>3.2885343098489187E-3</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>868.10754517127168</v>
+        <v>3.8702846748113074E-3</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1468.7187278029317</v>
+        <v>5.425229183935165E-3</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2458.3666555082464</v>
+        <v>1.0489140778110763E-2</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>4064.3722665915834</v>
+        <v>4.7567795707190143E-2</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>6613.6046958160459</v>
+        <v>0.39183862197927111</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>10423.433195006661</v>
+        <v>6.3340494754732397</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>16771.33817330296</v>
+        <v>12.091581309215377</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>25615.463297085371</v>
+        <v>67.667544248803722</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>35555.838549791297</v>
+        <v>544.01347478786613</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>51111.987097777863</v>
+        <v>1539.7307130675194</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>69552.340356865665</v>
+        <v>4384.7799030870747</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>84055.646727621963</v>
+        <v>13782.682017204326</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>103915.64060302931</v>
+        <v>31110.410667980592</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>145977.69807395412</v>
+        <v>49874.9532317513</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>217407.2278570706</v>
+        <v>67718.178372445822</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>284720.4418687796</v>
+        <v>106191.28756921938</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>336730.64266753668</v>
+        <v>181692.3922813136</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>135.67062414712836</v>
+        <v>-99.658162398399554</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>93.690370300837415</v>
+        <v>-99.65740329920078</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1703.5567982850621</v>
+        <v>261.72737464739089</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.5449272873557427</v>
+        <v>2.559939956128761E-3</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.259602186898819</v>
+        <v>4.2907339544771359E-3</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1868160417559444</v>
+        <v>6.5215494809884372E-3</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.3888822109748786</v>
+        <v>8.4239322773208974E-3</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9411563230455542</v>
+        <v>1.1948124527853366E-2</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9478833034548142</v>
+        <v>1.8977139991211901E-2</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5143354003143124</v>
+        <v>3.3454085683340656E-2</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.817713186720598</v>
+        <v>4.6280754248980066E-2</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.061374958746935</v>
+        <v>5.4302967679289479E-2</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.506964957762893</v>
+        <v>5.7345743607079669E-2</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.463664829265074</v>
+        <v>6.2211612057648108E-2</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.323866295076904</v>
+        <v>7.3656155098777487E-2</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>49.581918634803216</v>
+        <v>0.1024165063752458</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>63.752429495601056</v>
+        <v>0.21810042573821387</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>81.324072056286298</v>
+        <v>0.62597014463892053</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>102.09521631793852</v>
+        <v>2.5167537574171295</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>129.50420137317153</v>
+        <v>3.4772951139089958</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>160.04831550842817</v>
+        <v>8.226028461463267</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>188.56255871670626</v>
+        <v>23.324096440974216</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>226.07960345369031</v>
+        <v>39.239402557474286</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>263.72777699147593</v>
+        <v>66.21767062565003</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>289.9235187555883</v>
+        <v>117.39966787518748</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>322.35948970525021</v>
+        <v>176.3814351568231</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>382.07027897227772</v>
+        <v>223.32700963329827</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>466.26947986874563</v>
+        <v>260.22716686089063</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>533.59201818316171</v>
+        <v>325.87004705744187</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>580.28496677713156</v>
+        <v>426.25390588393861</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7707960906275191</v>
+        <v>-1.6042917108753355E-3</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8941417037175583</v>
+        <v>-8.534087744694295E-5</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.447917705970676</v>
+        <v>-2.4527022410729253E-4</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9162324304045972</v>
+        <v>1.617259354487581E-4</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3982419292940103</v>
+        <v>5.4684535769847394E-4</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.9858010408729019</v>
+        <v>1.3852233762923112E-3</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.4735868803543184</v>
+        <v>2.2229726000458443E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0858043761493743</v>
+        <v>3.1798446227644722E-3</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.7624173540009078</v>
+        <v>4.2472216498270054E-3</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.5797096473655294</v>
+        <v>5.9416622768902333E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.430662947470561</v>
+        <v>8.236054581480131E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.312564440557709</v>
+        <v>1.086789869119751E-2</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.331018706347088</v>
+        <v>1.3525580394396343E-2</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.158179500357205</v>
+        <v>1.6947093644340921E-2</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>13.684332277581479</v>
+        <v>2.3047974222555109E-2</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>14.983932658575451</v>
+        <v>3.7497259023168195E-2</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>16.209156194029905</v>
+        <v>6.6607069103035529E-2</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>17.685481974675142</v>
+        <v>-0.27962923608608081</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>19.097200953248773</v>
+        <v>3.6886180410338198E-2</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>21.302214360794448</v>
+        <v>-0.37444479937804442</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>25.598698636583315</v>
+        <v>-5.6541350956377983</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>30.751164964746295</v>
+        <v>-7.5607913275155063</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>38.367410264404477</v>
+        <v>-15.500229795692283</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>51.360089828789818</v>
+        <v>-36.544250355978974</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>65.96294470337601</v>
+        <v>-54.654187082027669</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>77.78774744015864</v>
+        <v>-63.958650104053781</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>88.728611091382334</v>
+        <v>-62.119480871082246</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.7777960906275192</v>
+        <v>5.3957082891246642E-3</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.9031417037175586</v>
+        <v>8.9146591225530581E-3</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4589177059706762</v>
+        <v>1.0754729775892707E-2</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.9302324304045975</v>
+        <v>1.4161725935448758E-2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.4152419292940106</v>
+        <v>1.7546845357698473E-2</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.0078010408729021</v>
+        <v>2.338522337629231E-2</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.5045868803543181</v>
+        <v>3.3222972600045843E-2</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.1338043761493743</v>
+        <v>5.1179844622764474E-2</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>8.8264173540009079</v>
+        <v>6.8247221649827008E-2</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>9.6557096473655299</v>
+        <v>8.1941662276890231E-2</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>10.51466294747056</v>
+        <v>9.223605458148014E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>11.40756444055771</v>
+        <v>0.1058678986911975</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>12.445018706347089</v>
+        <v>0.12752558039439635</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>13.310179500357204</v>
+        <v>0.16894709364434091</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>13.963332277581479</v>
+        <v>0.30204797422255514</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>15.684932658575452</v>
+        <v>0.73849725902316821</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>18.819156194029905</v>
+        <v>2.6766070691030355</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>21.27999187467514</v>
+        <v>3.314880663913919</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>27.471087453248774</v>
+        <v>8.4107726804103393</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>44.814374360794446</v>
+        <v>23.137715200621958</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>65.079268636583322</v>
+        <v>33.826434904362202</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>97.279114964746299</v>
+        <v>58.967158672484501</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>156.16741026440448</v>
+        <v>102.29977020430772</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>228.26008982878983</v>
+        <v>140.35574964402105</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>289.96294470337602</v>
+        <v>169.34581291797232</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>338.88774744015865</v>
+        <v>197.14134989594623</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>415.72861109138233</v>
+        <v>264.88051912891774</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>-11.987388908617675</v>
+        <v>-162.83548087108227</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>8.5334961266360665</v>
+        <v>-104.00263954356677</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>2250.7821060164097</v>
+        <v>5055.9442262852172</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.203823972729273</v>
+        <v>1.2990918737084663E-5</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.933050449252537</v>
+        <v>4.3486465751511787E-6</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.647128824792969</v>
+        <v>1.0531778827477401E-5</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.966317775988657</v>
+        <v>8.0557996655042328E-6</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>40.873542366483001</v>
+        <v>1.9830586268251626E-5</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>48.675752763925217</v>
+        <v>5.7984823028965082E-5</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>55.600687904272142</v>
+        <v>2.1836053877899596E-4</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>65.121742669319588</v>
+        <v>1.64356383896461E-4</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>76.569803869200243</v>
+        <v>6.0105572146911027E-5</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>91.617625573470363</v>
+        <v>4.2367541823767279E-6</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>108.56937593889087</v>
+        <v>7.6393942765569318E-6</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>127.54459777302957</v>
+        <v>6.6131071696627335E-5</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>151.11830891459945</v>
+        <v>5.9899721503115617E-4</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>169.81163917052984</v>
+        <v>1.2111642197327476E-2</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>175.88945744097953</v>
+        <v>0.15916271887192709</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>170.95386402628296</v>
+        <v>3.5025225094837937</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>231.7898547783185</v>
+        <v>0.8425456069686611</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>166.56755594221852</v>
+        <v>25.593540049553038</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>15.673106580086815</v>
+        <v>228.05189897626343</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>28.449468959229844</v>
+        <v>267.08890299355392</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>2.0986776927108171</v>
+        <v>1069.389089550227</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>421.10672263009917</v>
+        <v>3461.3032186686155</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>429.84027714452094</v>
+        <v>5565.1942855700954</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>18.148365349358567</v>
+        <v>6996.3606176136855</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>833.0695769501408</v>
+        <v>8418.8308470837383</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>141.31853920099849</v>
+        <v>16863.269006847062</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>143.69749284645005</v>
+        <v>26515.393830516598</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>-2.8026515044136002</v>
+        <v>-38.070935123091552</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>2.7534867921101416</v>
+        <v>-33.558331787828564</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>200.00538957106556</v>
+        <v>131.43263475554039</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7687960906275193</v>
+        <v>3.6042917108753368E-3</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8921417037175585</v>
+        <v>2.0853408774469413E-3</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4449177059706759</v>
+        <v>3.2452702241072932E-3</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9132324304045971</v>
+        <v>2.8382740645512428E-3</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3932419292940104</v>
+        <v>4.4531546423015253E-3</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9768010408729024</v>
+        <v>7.6147766237076898E-3</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.456586880354318</v>
+        <v>1.4777027399954158E-2</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0698043761493743</v>
+        <v>1.2820155377235527E-2</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7504173540009074</v>
+        <v>7.7527783501729897E-3</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.5717096473655303</v>
+        <v>2.0583377231097738E-3</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.41966294747056</v>
+        <v>2.7639454185198614E-3</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.293564440557709</v>
+        <v>8.1321013088025002E-3</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.293018706347089</v>
+        <v>2.4474419605603648E-2</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>13.031179500357204</v>
+        <v>0.11005290635565912</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.262332277581478</v>
+        <v>0.39895202577744493</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>13.074932658575452</v>
+        <v>1.8715027409768317</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>15.224646294029904</v>
+        <v>0.91790283089696434</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>12.906105374675139</v>
+        <v>5.0590058360860821</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>3.9589274532487728</v>
+        <v>15.101387319589662</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>5.3338043607944456</v>
+        <v>16.342854799378042</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>1.4486813634166822</v>
+        <v>32.701515095637802</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>20.520885035253698</v>
+        <v>58.832841327515496</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>20.732589735595525</v>
+        <v>74.600229795692286</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>4.2600898287898303</v>
+        <v>83.644250355978954</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>28.862944703376002</v>
+        <v>91.754187082027698</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>11.887747440158648</v>
+        <v>129.85865010405377</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>11.987388908617675</v>
+        <v>162.83548087108227</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>3.9577735367971219E-5</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283395</v>
+        <v>8.185030007748853E-5</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>1.2849972218579794E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>2.34428877646989E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003863</v>
+        <v>4.7292970256407156E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>7.8914968000389635E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>1.2695838291443984E-3</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819021</v>
+        <v>2.0917315321785125E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>3.2611244858390849E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>4.7959132943988063E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>6.9607338859429026E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>9.5356269312566223E-3</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872999</v>
+        <v>1.4193171957563352E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>2.6007162598144881E-2</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>5.8995013605020422E-2</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.14726874171713478</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404441</v>
+        <v>0.19158046240636734</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.53229590190861809</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>1.2239253515260824</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>1.5867766242608612</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.9225529118911</v>
+        <v>2.47400827824077</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>4.4220744818780879</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>5.6266655469471143</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>5.7447920737230973</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>5.9041407926520151</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>9.1932314887531277</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9717167305578602</v>
+        <v>7.0526164987177887E-3</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.96557437779591</v>
+        <v>7.0921942340857599E-3</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.73322987142425</v>
+        <v>7.1740445341632484E-3</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.642375376936773</v>
+        <v>7.3025442563490464E-3</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.004669727071636</v>
+        <v>7.5369731339960354E-3</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.688518217872023</v>
+        <v>8.0099028365601069E-3</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.717439171332025</v>
+        <v>8.7990525165640033E-3</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.547772735901198</v>
+        <v>1.0068636345708402E-2</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.273687939720219</v>
+        <v>1.2160367877886914E-2</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.05009164406646</v>
+        <v>1.5421492363725999E-2</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.74158598197204</v>
+        <v>2.0217405658124805E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.80983531733298</v>
+        <v>2.7178139544067708E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.86731245231607</v>
+        <v>3.671376647532433E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.43181596418907</v>
+        <v>5.0906938432887683E-2</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.49729624351318</v>
+        <v>7.6914101031032564E-2</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>412.9966691567152</v>
+        <v>0.13590911463605299</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.81973993282264</v>
+        <v>0.28317785635318776</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.34319098686706</v>
+        <v>0.4747583187595551</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.66674949177434</v>
+        <v>1.0070542206681732</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.28845916417185</v>
+        <v>2.2309795721942556</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.74017981339136</v>
+        <v>3.8177561964551168</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6627327252825</v>
+        <v>6.2917644746958867</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6169425365665</v>
+        <v>10.713838956573975</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0929994378496</v>
+        <v>16.340504503521089</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6767870532706</v>
+        <v>22.085296577244186</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3883425636102</v>
+        <v>27.989437369896201</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9885725091176</v>
+        <v>37.182668858649329</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1366.2725725091177</v>
+        <v>-390.53333114135069</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>377.40983978383514</v>
+        <v>-279.02509561604654</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4016358.8470767504</v>
+        <v>18340.63109393846</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.255724653337495</v>
+        <v>3.7923025010661683E-6</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.82099730984632</v>
+        <v>1.5270945904112576E-5</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.53264749352496</v>
+        <v>4.6593668021586628E-5</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>467.65686019342331</v>
+        <v>9.4040647900068883E-5</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.02980505437154</v>
+        <v>2.0917914612675242E-4</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1343.7736418936192</v>
+        <v>5.2854456758440703E-4</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2178.0365525666598</v>
+        <v>1.5367142835991073E-3</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3658.2867643681452</v>
+        <v>2.9085919856114452E-3</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6114.8783991178661</v>
+        <v>4.0754986294867322E-3</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10397.083845166158</v>
+        <v>4.7030117096184916E-3</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17330.823600708758</v>
+        <v>5.5924364165014654E-3</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28458.28485341273</v>
+        <v>7.5380354530293799E-3</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>46965.526651304986</v>
+        <v>1.3290915640306052E-2</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>72443.238341452627</v>
+        <v>5.2026444735058505E-2</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>104197.4488685299</v>
+        <v>0.38948320929190428</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>168417.21822154321</v>
+        <v>6.1211257090409585</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>252230.18168152162</v>
+        <v>10.964919903282173</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>359963.16632645496</v>
+        <v>62.396226023666998</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>491617.7583653786</v>
+        <v>506.47978613891485</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>657409.4331308601</v>
+        <v>1387.5319870392773</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>813986.90762485168</v>
+        <v>3932.5684068781597</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>977849.5041729135</v>
+        <v>12434.086589966695</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1155016.5065751455</v>
+        <v>27617.840122351536</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1411564.975313226</v>
+        <v>43122.466069852147</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>1616907.5253727182</v>
+        <v>57128.028452267936</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>1665102.0746240611</v>
+        <v>89407.316564371213</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>1866700.7423906822</v>
+        <v>152516.28273235986</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>319.43452489715554</v>
+        <v>-91.30669209039425</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>121.77810754650781</v>
+        <v>-90.032491260872803</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6437.8445666230264</v>
+        <v>249.0721284704986</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9627167305578599</v>
+        <v>1.9473835012822124E-3</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.954574377795911</v>
+        <v>3.9078057659142395E-3</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.71922987142425</v>
+        <v>6.8259554658367519E-3</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.625375376936773</v>
+        <v>9.697455743650954E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.982669727071638</v>
+        <v>1.4463026866003963E-2</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.657518217872024</v>
+        <v>2.2990097163439895E-2</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.669439171332023</v>
+        <v>3.9200947483435999E-2</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.483772735901198</v>
+        <v>5.3931363654291603E-2</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.197687939720225</v>
+        <v>6.3839632122113077E-2</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>101.96609164406645</v>
+        <v>6.8578507636274003E-2</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.64658598197204</v>
+        <v>7.4782594341875203E-2</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.69583531733298</v>
+        <v>8.6821860455932293E-2</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>216.71531245231608</v>
+        <v>0.11528623352467567</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>269.15281596418907</v>
+        <v>0.22809306156711234</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>322.79629624351315</v>
+        <v>0.62408589896896749</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>410.38666915671519</v>
+        <v>2.4740908853639469</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>502.22523003282265</v>
+        <v>3.3113320436468121</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>599.96930448686703</v>
+        <v>7.8991281812404459</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>701.15458949177435</v>
+        <v>22.505105779331828</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>810.80788916417191</v>
+        <v>37.249590427805742</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>902.21222981339133</v>
+        <v>62.71019380354489</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>988.86273272528251</v>
+        <v>111.50823552530412</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1074.7169425365664</v>
+        <v>166.18616104342604</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1188.0929994378496</v>
+        <v>207.65949549647891</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1271.5767870532704</v>
+        <v>239.01470342275584</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1290.3883425636102</v>
+        <v>299.01056263010378</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1366.2725725091177</v>
+        <v>390.53333114135069</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>3.4945901221187722E-5</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>7.3544254293081424E-5</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460577</v>
+        <v>1.1846323892193093E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>2.1993856267340291E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187248</v>
+        <v>4.5002901585074369E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>7.6435723690460727E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>1.2481935177687635E-3</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658747</v>
+        <v>2.0791491204506587E-3</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>3.2709306594454444E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>4.8420207008773378E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>7.0500650084552342E-3</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>9.664021688403867E-3</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371499</v>
+        <v>1.4346860753264301E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>2.6188273584745361E-2</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>5.9220875270643361E-2</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.14744238440837243</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705482</v>
+        <v>0.19100066237233515</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.53054133665668712</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>1.2200139821101668</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>1.5859785792762873</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173127</v>
+        <v>2.4891045853262077</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>4.4884528902283893</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>5.8025626898998475</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>6.0777388597215563</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>6.4430136206652513</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>10.158301330680448</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3170805600049107</v>
+        <v>7.0438795557318107E-3</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.086494904627166</v>
+        <v>7.0788254569529984E-3</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.650210877016017</v>
+        <v>7.1523697112460798E-3</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.374654213762074</v>
+        <v>7.2708329501680108E-3</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.595726619776549</v>
+        <v>7.4907715128414137E-3</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.178596002395274</v>
+        <v>7.9408005286921574E-3</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.279564227059097</v>
+        <v>8.7051577655967646E-3</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.273327030105783</v>
+        <v>9.9533512833655281E-3</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.33433711676453</v>
+        <v>1.2032500403816187E-2</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.61954470742197</v>
+        <v>1.5303431063261631E-2</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.02443946478178</v>
+        <v>2.0145451764138969E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.95520676938497</v>
+        <v>2.7195516772594203E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.93120175716928</v>
+        <v>3.685953846099807E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.26938808354078</v>
+        <v>5.1206399214262371E-2</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.7208863533188</v>
+        <v>7.7394672799007733E-2</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.25988933976146</v>
+        <v>0.13661554806965109</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.43157703638582</v>
+        <v>0.28405793247802352</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.73371063344064</v>
+        <v>0.47505859485035867</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.6129418107397</v>
+        <v>1.0055999315070459</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.23703744191027</v>
+        <v>2.2256139136172126</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.17330336083137</v>
+        <v>3.8115924928934999</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2356344525626</v>
+        <v>6.3006970782197076</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4206624418018</v>
+        <v>10.789149968448097</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.810783168778</v>
+        <v>16.591712658347944</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2286759015999</v>
+        <v>22.669451518069501</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.299205634258</v>
+        <v>29.112465138734752</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7536360660774</v>
+        <v>39.2707664694152</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1467.0376360660775</v>
+        <v>-388.4452335305848</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>476.6020016135148</v>
+        <v>-276.94593060880447</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4016936.1243681065</v>
+        <v>18339.862603522448</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.024202591531505</v>
+        <v>3.8264071924839821E-6</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.66658738242234</v>
+        <v>1.5375609797039857E-5</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.21866883648198</v>
+        <v>4.6890040571460098E-5</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>374.71877665958061</v>
+        <v>9.4656691483536496E-5</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.01549322306778</v>
+        <v>2.105177112925742E-4</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1166.0583127428017</v>
+        <v>5.3172668025756387E-4</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1956.4312739724539</v>
+        <v>1.5440846262266402E-3</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3388.3257532978037</v>
+        <v>2.9210402374992869E-3</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5815.3339798141078</v>
+        <v>4.0918410045877752E-3</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10107.395749618041</v>
+        <v>4.7192185836800469E-3</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17142.518118561955</v>
+        <v>5.6032033915948461E-3</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28507.353103342208</v>
+        <v>7.535018308376976E-3</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47427.780717989845</v>
+        <v>1.3257325883414382E-2</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>73435.790433668037</v>
+        <v>5.1889924558932016E-2</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>105637.92652512426</v>
+        <v>0.38888360411345674</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>170279.93117211736</v>
+        <v>6.1176306470507926</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>253851.79022059496</v>
+        <v>10.959092229270125</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>360431.91843353573</v>
+        <v>62.391482275170688</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>490141.10469200899</v>
+        <v>506.54524611668165</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>654087.02362911752</v>
+        <v>1387.9317529983102</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>811162.0525304568</v>
+        <v>3933.3414989591938</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>980962.7459934504</v>
+        <v>12432.094552042921</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1174017.0259383209</v>
+        <v>27592.814498204727</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1463642.1310714521</v>
+        <v>43018.197657997305</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>1721681.6621232855</v>
+        <v>56849.126449394214</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>1836835.9367928507</v>
+        <v>88736.983425721512</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>2152199.425634345</v>
+        <v>150889.69945263056</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>342.99339656830176</v>
+        <v>-90.818494872902761</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>153.7842517370884</v>
+        <v>-89.361611084553388</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6422.6786763627606</v>
+        <v>249.07406740912182</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3080805600049104</v>
+        <v>1.9561204442681904E-3</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.075494904627167</v>
+        <v>3.921174543047001E-3</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.636210877016017</v>
+        <v>6.8476302887539205E-3</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.357654213762075</v>
+        <v>9.7291670498319896E-3</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.573726619776551</v>
+        <v>1.4509228487158585E-2</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.147596002395275</v>
+        <v>2.3059199471307842E-2</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.231564227059096</v>
+        <v>3.9294842234403236E-2</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.209327030105783</v>
+        <v>5.4046648716634477E-2</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.258337116764537</v>
+        <v>6.3967499596183808E-2</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.53554470742196</v>
+        <v>6.8696568936738367E-2</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>130.92943946478178</v>
+        <v>7.4854548235861032E-2</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.84120676938497</v>
+        <v>8.6804483227405804E-2</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>217.77920175716929</v>
+        <v>0.11514046153900193</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>270.99038808354078</v>
+        <v>0.22779360078573765</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>325.01988635331878</v>
+        <v>0.62360532720099238</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>412.64988933976144</v>
+        <v>2.4733844519303489</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>503.83706713638583</v>
+        <v>3.3104519675219763</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>600.35982413344061</v>
+        <v>7.8988279051496422</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>700.1007818107397</v>
+        <v>22.506560068492956</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>808.75646744191022</v>
+        <v>37.254956086382791</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>900.64535336083134</v>
+        <v>62.716357507106501</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>990.43563445256268</v>
+        <v>111.49930292178028</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1083.5206624418017</v>
+        <v>166.11085003155191</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1209.810783168778</v>
+        <v>207.40828734165206</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1312.1286759015998</v>
+        <v>238.43054848193051</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1355.299205634258</v>
+        <v>297.88753486126524</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1467.0376360660775</v>
+        <v>388.4452335305848</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737854</v>
+        <v>2.177748034086404E-5</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166</v>
+        <v>5.0859813263514145E-5</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>9.3174330323133117E-5</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129835</v>
+        <v>1.8705301837462773E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>4.0442469378654689E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573254</v>
+        <v>7.2928414977208467E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>1.241630006872706E-3</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398959</v>
+        <v>2.11733562013737E-3</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>3.3778256970457658E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>5.024553612346324E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>7.2882455709316618E-3</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>9.9020402024081119E-3</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290303</v>
+        <v>1.4529238642628839E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>2.6285536573056933E-2</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>5.9135469573427427E-2</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.14665817960093011</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441057</v>
+        <v>0.18884476645140674</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.5258805811149404</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>1.2135017887882666</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>1.5926653148133165</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584695</v>
+        <v>2.5344013909774841</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>4.6400789643364959</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>6.1531797252242111</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>6.6874292486690656</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>7.3812672376754414</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485052</v>
+        <v>11.807727075626428</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6339318817343056</v>
+        <v>7.0191512174269397E-3</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.759828031708091</v>
+        <v>7.0409286977678037E-3</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.828166044924691</v>
+        <v>7.0917885110313179E-3</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.233959096098408</v>
+        <v>7.184962841354451E-3</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.403831078711391</v>
+        <v>7.3720158597290787E-3</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.208741076289133</v>
+        <v>7.7764405535156256E-3</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.101501974862387</v>
+        <v>8.5057247032877103E-3</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.209244383028192</v>
+        <v>9.7473547101604163E-3</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.789181622427151</v>
+        <v>1.1864690330297786E-2</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.881438167129403</v>
+        <v>1.5242516027343552E-2</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.23657450081717</v>
+        <v>2.0267069639689876E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.9651471233567</v>
+        <v>2.7555315210621538E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.29425586929335</v>
+        <v>3.745735541302965E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.05687404958366</v>
+        <v>5.1986594055658489E-2</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.7808555024227</v>
+        <v>7.8272130628715422E-2</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.79740849871433</v>
+        <v>0.13740760020214285</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.44594921320271</v>
+        <v>0.28406577980307296</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.94009767464377</v>
+        <v>0.4729105462544797</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.67914302389613</v>
+        <v>0.99879112736942011</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.14409625709879</v>
+        <v>2.2122929161576868</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.4868061627493</v>
+        <v>3.8049582309710033</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0435467985963</v>
+        <v>6.3393596219484873</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6650547411698</v>
+        <v>10.979438586284983</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5738828869758</v>
+        <v>17.132618311509194</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.1027633192305</v>
+        <v>23.82004756017826</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0344518681668</v>
+        <v>31.201314797853701</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1511216730173</v>
+        <v>43.009041873480129</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>1647.4351216730174</v>
+        <v>-384.70695812651991</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>650.19157487442112</v>
+        <v>-273.24631774846836</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4017092.782142825</v>
+        <v>18333.402243048775</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.140131147213815</v>
+        <v>3.9237618994211791E-6</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.049023738152719</v>
+        <v>1.5674245576158532E-5</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.689523067503387</v>
+        <v>4.7723385976318903E-5</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.68800774793846</v>
+        <v>9.633495442559291E-5</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>375.65537596370285</v>
+        <v>2.1397792000801756E-4</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>793.98509216239199</v>
+        <v>5.3933371336439362E-4</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1525.1760165005803</v>
+        <v>1.5597977812124985E-3</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2931.7074892978462</v>
+        <v>2.9433495209451534E-3</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5433.6331449009331</v>
+        <v>4.1133379464285977E-3</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9959.5286647220164</v>
+        <v>4.7275916022501089E-3</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17461.395711555015</v>
+        <v>5.5850108802389621E-3</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29532.816767613589</v>
+        <v>7.4726835283350015E-3</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>49347.181842698599</v>
+        <v>1.3120017428977008E-2</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>76053.435815308025</v>
+        <v>5.1535086478450405E-2</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>108293.55129749539</v>
+        <v>0.38778999929169977</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>172380.58417587826</v>
+        <v>6.113713175538126</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>253866.272897986</v>
+        <v>10.959040272946407</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>357085.37673761894</v>
+        <v>62.425421021664953</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>483257.13428654592</v>
+        <v>506.85177799513161</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>645875.06343599444</v>
+        <v>1388.9244767980463</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>808127.02507343853</v>
+        <v>3934.1736964576799</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>994494.69163144415</v>
+        <v>12423.474353485326</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1222716.356286742</v>
+        <v>27529.632699842383</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>1578977.9231536509</v>
+        <v>42794.113606651743</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>1937671.6930883732</v>
+        <v>56301.775829844075</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>2178677.7031017598</v>
+        <v>87496.862167318453</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>2714042.4801217895</v>
+        <v>147999.44363095996</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>385.17032836578886</v>
+        <v>-89.944486090424476</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>209.79606566760708</v>
+        <v>-88.167864114298183</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6388.3045016312881</v>
+        <v>249.06190653889405</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6249318817343057</v>
+        <v>1.9808487825730614E-3</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7488280317080909</v>
+        <v>3.9590713022321956E-3</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8141660449246917</v>
+        <v>6.9082114889686824E-3</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.216959096098408</v>
+        <v>9.8150371586455502E-3</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.381831078711393</v>
+        <v>1.462798414027092E-2</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.177741076289134</v>
+        <v>2.3223559446484375E-2</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.053501974862385</v>
+        <v>3.9494275296712289E-2</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.145244383028192</v>
+        <v>5.4252645289839585E-2</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.713181622427157</v>
+        <v>6.4135309669702212E-2</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.7974381671294</v>
+        <v>6.875748397265645E-2</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.14157450081717</v>
+        <v>7.4732930360310118E-2</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.8511471233567</v>
+        <v>8.6444684789378473E-2</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>222.14225586929336</v>
+        <v>0.11454264458697035</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>275.77787404958366</v>
+        <v>0.22701340594434155</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>329.07985550242267</v>
+        <v>0.62272786937128466</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>415.18740849871432</v>
+        <v>2.4725923997978572</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>503.85143931320272</v>
+        <v>3.310444120196927</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>597.56621117464374</v>
+        <v>7.9009759537455215</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>695.16698302389614</v>
+        <v>22.513368872630583</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>803.66352625709874</v>
+        <v>37.268277083842314</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>898.95885616274927</v>
+        <v>62.722991769029001</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>997.2435467985963</v>
+        <v>111.46064037805151</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1105.7650547411697</v>
+        <v>165.92056141371503</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1256.5738828869758</v>
+        <v>206.86738168849081</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1392.0027633192303</v>
+        <v>237.27995243982176</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1476.0344518681668</v>
+        <v>295.79868520214632</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>1647.4351216730174</v>
+        <v>384.70695812651991</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983957</v>
+        <v>2.1280084617842504E-5</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.043276329398747</v>
+        <v>4.9996415444739442E-5</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>9.2182748942015724E-5</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336925</v>
+        <v>1.8575260147137354E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>4.0259759832545101E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412958</v>
+        <v>7.2775013707557581E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>1.2409577190854344E-3</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.62752815761381</v>
+        <v>2.117919285356153E-3</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>3.3803150691586875E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>5.0290786184387405E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>7.2941631134399443E-3</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>9.9080020967225527E-3</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547853</v>
+        <v>1.4533959830723323E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>2.6288653453739798E-2</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>5.91359913270353E-2</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.14664842679942003</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634658</v>
+        <v>0.18881056280140862</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.52580902073034608</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>1.2134065027835543</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>1.592794653957839</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791284</v>
+        <v>2.5352005588986972</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>4.6427454716610219</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>6.1593887165380234</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>6.6983934054323484</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>7.398486479421468</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.2441395799699</v>
+        <v>11.838565303447375</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4814068390269206</v>
+        <v>7.018345842429231E-3</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5767140718253163</v>
+        <v>7.0396259270470735E-3</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6199904012240633</v>
+        <v>7.089622342491813E-3</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.008143852723437</v>
+        <v>7.1818050914338287E-3</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.17138316945713</v>
+        <v>7.3675576929052022E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.980448853845608</v>
+        <v>7.7701552912306533E-3</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.898483016258567</v>
+        <v>8.4979054283062291E-3</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.041715320004926</v>
+        <v>9.7388631473916635E-3</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.669243477618735</v>
+        <v>1.1856782432747816E-2</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.815781978906728</v>
+        <v>1.5237097501906504E-2</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.22766901633889</v>
+        <v>2.0266176120345245E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.00717623872046</v>
+        <v>2.7560339233785189E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.37443451304935</v>
+        <v>3.7468341330507741E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.1532570855972</v>
+        <v>5.2002301161231064E-2</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.86795348123474</v>
+        <v>7.8290954614970862E-2</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.85938697656127</v>
+        <v>0.13742694594200616</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.46351843651604</v>
+        <v>0.28407537274142619</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.9080905761507</v>
+        <v>0.47288593554283481</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.6094554798924</v>
+        <v>0.99869495627318094</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.07089755275831</v>
+        <v>2.2121014590567354</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.4710151432372</v>
+        <v>3.8048961130145744</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.17333059115</v>
+        <v>6.3400966719132716</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0629243794983</v>
+        <v>10.982842143574294</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4049198085656</v>
+        <v>17.142230860112317</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5311930226655</v>
+        <v>23.840624265544665</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2190528332678</v>
+        <v>31.239110744966133</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4631924132377</v>
+        <v>43.077676048413508</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>1650.7471924132378</v>
+        <v>-384.63832395158647</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>653.37386182208775</v>
+        <v>-273.17842062349973</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4017198.7073414703</v>
+        <v>18333.264532507088</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.057609255720932</v>
+        <v>3.9269532002175184E-6</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.977173129314341</v>
+        <v>1.5684562797717745E-5</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.063070785960733</v>
+        <v>4.7753319369388345E-5</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.76981860215398</v>
+        <v>9.6396951262594713E-5</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>366.69887577068806</v>
+        <v>2.1410836787045769E-4</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>781.17169123373162</v>
+        <v>5.3962568519353923E-4</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1509.3600305965952</v>
+        <v>1.5604154755510383E-3</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2913.5937511674942</v>
+        <v>2.9442709725374908E-3</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5415.9654855560739</v>
+        <v>4.1143523598798481E-3</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9946.4283366881846</v>
+        <v>4.7283367599623132E-3</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17459.042221381365</v>
+        <v>5.5851444316752557E-3</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29547.264037435812</v>
+        <v>7.4718149533782967E-3</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>49382.810400906514</v>
+        <v>1.3117500837585078E-2</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>76106.605722530177</v>
+        <v>5.1527955278096456E-2</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>108350.88326411734</v>
+        <v>0.3877665552043344</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>172432.05338440993</v>
+        <v>6.1136175076536743</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>253883.97776357169</v>
+        <v>10.958976759265695</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>357047.12504091888</v>
+        <v>62.425809919552457</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>483160.25018346088</v>
+        <v>506.85610827510953</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>645757.41453634936</v>
+        <v>1388.938747387278</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>808098.63436911837</v>
+        <v>3934.1814889096786</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>994753.56057448359</v>
+        <v>12423.310049906439</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1223596.4152718035</v>
+        <v>27528.503271154092</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>1581067.1323587855</v>
+        <v>42790.136653531074</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>1941650.4896885685</v>
+        <v>56292.011373903457</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>2185131.5681592836</v>
+        <v>87474.503612928413</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>2724966.2932601874</v>
+        <v>147946.64025228558</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>385.94469049865745</v>
+        <v>-89.928439420453401</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>210.8228880800242</v>
+        <v>-88.145955879496299</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6386.8334196720971</v>
+        <v>249.06151307235723</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4724068390269207</v>
+        <v>1.98165415757077E-3</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5657140718253162</v>
+        <v>3.9603740729529258E-3</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.605990401224064</v>
+        <v>6.9103776575081873E-3</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.991143852723438</v>
+        <v>9.8181949085661725E-3</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.149383169457131</v>
+        <v>1.4632442307094796E-2</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.94944885384561</v>
+        <v>2.3229844708769348E-2</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.850483016258565</v>
+        <v>3.950209457169377E-2</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>53.977715320004926</v>
+        <v>5.426113685260834E-2</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.593243477618742</v>
+        <v>6.4143217567252178E-2</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.731781978906724</v>
+        <v>6.8762902498093498E-2</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.13266901633889</v>
+        <v>7.4733823879654757E-2</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.89317623872046</v>
+        <v>8.6439660766214815E-2</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>222.22243451304936</v>
+        <v>0.11453165866949225</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>275.87425708559721</v>
+        <v>0.22699769883876897</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>329.16695348123471</v>
+        <v>0.62270904538502925</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>415.24938697656125</v>
+        <v>2.4725730540579938</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>503.86900853651605</v>
+        <v>3.3104345272585736</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>597.53420407615067</v>
+        <v>7.9010005644571661</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>695.09729547989241</v>
+        <v>22.513465043726821</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>803.59032755275825</v>
+        <v>37.268468540943267</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>898.94306514323716</v>
+        <v>62.723053886985433</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>997.37333059115008</v>
+        <v>111.45990332808672</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1106.1629243794982</v>
+        <v>165.91715785642572</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1257.4049198085656</v>
+        <v>206.85776913988769</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1393.4311930226654</v>
+        <v>237.25937573445535</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1478.2190528332678</v>
+        <v>295.76088925503387</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>1650.7471924132378</v>
+        <v>384.63832395158647</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
